--- a/src/main/resources/static/excel/品类测量组.xlsx
+++ b/src/main/resources/static/excel/品类测量组.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>编码</t>
-  </si>
-  <si>
-    <t>图片</t>
   </si>
   <si>
     <t>品类测量组</t>
   </si>
   <si>
-    <t>档差</t>
+    <t>品类</t>
+  </si>
+  <si>
+    <t>品牌</t>
   </si>
   <si>
     <t>测量点</t>
   </si>
   <si>
     <t>可用</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>上衣</t>
@@ -692,10 +689,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1019,10 +1016,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="4" width="14.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1031,10 +1033,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1044,64 +1046,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>10101</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="b">
+      <c r="F2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/品类测量组.xlsx
+++ b/src/main/resources/static/excel/品类测量组.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>编码</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>品类</t>
-  </si>
-  <si>
-    <t>品牌</t>
   </si>
   <si>
     <t>测量点</t>
@@ -1013,20 +1010,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+    <col min="2" max="3" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,77 +1033,65 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>10101</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="b">
+      <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:5">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:5">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:5">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:5">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:5">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:5">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
